--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cart-ggp\Tania\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Water</t>
   </si>
@@ -126,9 +127,6 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>Predicted Tiger</t>
-  </si>
-  <si>
     <t>Residuals</t>
   </si>
   <si>
@@ -139,6 +137,18 @@
   </si>
   <si>
     <t>Arranged</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Predicted Tiger Mortality</t>
+  </si>
+  <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>tm+s</t>
   </si>
 </sst>
 </file>
@@ -365,7 +375,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -416,7 +425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$19</c:f>
+              <c:f>Sheet1!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,10 +448,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:f>Sheet1!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -453,9 +462,15 @@
                   <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2016</c:v>
                 </c:pt>
               </c:numCache>
@@ -463,10 +478,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$24</c:f>
+              <c:f>Sheet1!$C$24:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>12.127751196300977</c:v>
                 </c:pt>
@@ -476,10 +491,10 @@
                 <c:pt idx="2">
                   <c:v>20.814614054211646</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>18.76544479112157</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>13.260197237842222</c:v>
                 </c:pt>
               </c:numCache>
@@ -691,7 +706,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -742,7 +756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$19</c:f>
+              <c:f>Sheet1!$G$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -765,10 +779,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$24</c:f>
+              <c:f>Sheet1!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2009</c:v>
                 </c:pt>
@@ -779,9 +793,15 @@
                   <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2016</c:v>
                 </c:pt>
               </c:numCache>
@@ -789,10 +809,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$20:$F$24</c:f>
+              <c:f>Sheet1!$G$24:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -803,9 +823,15 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
@@ -982,6 +1008,959 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Change in area of land cover from 2009-2016</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29933156988188975"/>
+          <c:y val="2.5608194622279128E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7122703412073491E-2"/>
+          <c:y val="0.12541666666666668"/>
+          <c:w val="0.87232174103237092"/>
+          <c:h val="0.76718394575678039"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>70917.499899999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65956.429799999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62004.601799999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54437.778899999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52575.1227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39352.936500000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B07-4A3E-BDE4-A8F2840B0896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Urban</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42345.647100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53639.737200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71148.958199999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88626.141000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90907.4908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96952.609700000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112393.79549999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B07-4A3E-BDE4-A8F2840B0896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agriculture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>141128.5355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172489.11730000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196180.01209999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204708.3284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>241754.02979999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>275378.22240000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>286930.2279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B07-4A3E-BDE4-A8F2840B0896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1659.5550000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2759.1912000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3590.1837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3989.9663999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2912.9166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3327.2514000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1415.0492999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0B07-4A3E-BDE4-A8F2840B0896}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="579373664"/>
+        <c:axId val="579373992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579373664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579373992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579373992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area in square kilometers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579373664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1062,6 +2041,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2094,24 +3113,579 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2128,20 +3702,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>478895</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>301095</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2151,6 +3731,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0687CCDD-2D2B-4C80-9DDD-0A3B171C3B21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2422,30 +4045,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2459,8 +4083,9 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2009</v>
       </c>
@@ -2477,7 +4102,7 @@
         <v>241128535500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2010</v>
       </c>
@@ -2494,7 +4119,7 @@
         <v>192489117300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2011</v>
       </c>
@@ -2511,850 +4136,948 @@
         <v>176180012100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>3989966400</v>
+      </c>
+      <c r="C6">
+        <v>52575122700</v>
+      </c>
+      <c r="D6">
+        <v>88626141000</v>
+      </c>
+      <c r="E6">
+        <v>184708328400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>2912916600</v>
+      </c>
+      <c r="C7">
+        <v>62004601800</v>
+      </c>
+      <c r="D7">
+        <v>80907490800</v>
+      </c>
+      <c r="E7">
+        <v>181754029800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>2015</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>3327251400</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>54437778900</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>16952609700</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>215378222400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>2016</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>1415049300</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>42917499900</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>112393795500</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>166930227900</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="13" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <f t="shared" ref="B11:E15" si="0">B3/1000000</f>
+      <c r="B13">
+        <f t="shared" ref="B13:E15" si="0">B3/1000000</f>
         <v>1659.5550000000001</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>39352.936500000003</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>42345.647100000002</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>241128.5355</v>
       </c>
-      <c r="F11" s="5">
-        <f>SUM(B11:E11)</f>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" ref="G13:G19" si="1">SUM(B13:E13)</f>
         <v>324486.6741</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>2010</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>2759.1912000000002</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>92937.9663</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>53639.737200000003</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>192489.11730000001</v>
       </c>
-      <c r="F12" s="5">
-        <f>SUM(B12:E12)</f>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
         <v>341826.01199999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>2011</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>3590.1837</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>65956.429799999998</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>71148.958199999994</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>176180.01209999999</v>
       </c>
-      <c r="F13" s="5">
-        <f>SUM(B13:E13)</f>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
         <v>316875.58379999996</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <f>B6/1000000</f>
+        <v>3989.9663999999998</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:E16" si="2">C6/1000000</f>
+        <v>52575.1227</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>88626.141000000003</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>184708.3284</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>329899.55849999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <f>B7/1000000</f>
+        <v>2912.9166</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:E17" si="3">C7/1000000</f>
+        <v>62004.601799999997</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>80907.4908</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>181754.02979999999</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>327579.03899999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>2015</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
+      <c r="B18">
+        <f t="shared" ref="B18:E19" si="4">B8/1000000</f>
         <v>3327.2514000000001</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
+      <c r="C18">
+        <f t="shared" si="4"/>
         <v>54437.778899999998</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D18">
+        <f t="shared" si="4"/>
         <v>16952.609700000001</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="E18">
+        <f t="shared" si="4"/>
         <v>215378.2224</v>
       </c>
-      <c r="F14" s="5">
-        <f>SUM(B14:E14)</f>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
         <v>290095.86239999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>2016</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
+      <c r="B19">
+        <f t="shared" si="4"/>
         <v>1415.0492999999999</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
+      <c r="C19">
+        <f t="shared" si="4"/>
         <v>42917.499900000003</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f t="shared" si="4"/>
         <v>112393.79549999999</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
+      <c r="E19">
+        <f t="shared" si="4"/>
         <v>166930.2279</v>
       </c>
-      <c r="F15" s="5">
-        <f>SUM(B15:E15)</f>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
         <v>323656.57259999996</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="11">
-        <f>AVERAGE(F11:F15)</f>
-        <v>319388.14097999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="11">
+        <f>AVERAGE(G13:G19)</f>
+        <v>322059.90034285712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>2009</v>
       </c>
-      <c r="B20">
-        <f>B11/F11*100</f>
+      <c r="B24">
+        <f>B13/G13*100</f>
         <v>0.51144010909013782</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>12.127751196300977</v>
       </c>
-      <c r="D20">
-        <f>D11/F11*100</f>
+      <c r="D24">
+        <f>D13/G13*100</f>
         <v>13.050041952400782</v>
       </c>
-      <c r="E20">
-        <f>E11/F11*100</f>
+      <c r="E24">
+        <f>E13/G13*100</f>
         <v>74.310766742208102</v>
       </c>
-      <c r="F20">
+      <c r="G24">
         <f>8+18</f>
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>2010</v>
       </c>
-      <c r="B21">
-        <f>B$12/F12*100</f>
+      <c r="B25">
+        <f>B$14/G14*100</f>
         <v>0.80719170078841163</v>
       </c>
-      <c r="C21">
-        <f>C$12/F12*100</f>
+      <c r="C25">
+        <f>C$14/G14*100</f>
         <v>27.18867582845041</v>
       </c>
-      <c r="D21">
-        <f>D$12/F12*100</f>
+      <c r="D25">
+        <f>D$14/G14*100</f>
         <v>15.692116842178766</v>
       </c>
-      <c r="E21">
-        <f>E$12/F12*100</f>
+      <c r="E25">
+        <f>E$14/G14*100</f>
         <v>56.312015628582422</v>
       </c>
-      <c r="F21">
+      <c r="G25">
         <f>8+4+1</f>
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>2011</v>
       </c>
-      <c r="B22">
-        <f>B13/$F13*100</f>
+      <c r="B26">
+        <f>B15/$G15*100</f>
         <v>1.1329947410103993</v>
       </c>
-      <c r="C22">
-        <f>C13/$F13*100</f>
+      <c r="C26">
+        <f>C15/$G15*100</f>
         <v>20.814614054211646</v>
       </c>
-      <c r="D22">
-        <f>D13/$F13*100</f>
+      <c r="D26">
+        <f>D15/$G15*100</f>
         <v>22.453278774835034</v>
       </c>
-      <c r="E22">
-        <f>E13/$F13*100</f>
+      <c r="E26">
+        <f>E15/$G15*100</f>
         <v>55.59911242994292</v>
       </c>
-      <c r="F22">
+      <c r="G26">
         <f>4+5+1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>2015</v>
       </c>
-      <c r="B23">
-        <f>B14/F$14*100</f>
+      <c r="B29">
+        <f>B18/G$18*100</f>
         <v>1.146948933526051</v>
       </c>
-      <c r="C23">
-        <f>C14/F$14*100</f>
+      <c r="C29">
+        <f>C18/G$18*100</f>
         <v>18.76544479112157</v>
       </c>
-      <c r="D23" s="12">
-        <f>D14/F$14*100</f>
+      <c r="D29" s="12">
+        <f>D18/G$18*100</f>
         <v>5.8437957576329778</v>
       </c>
-      <c r="E23">
-        <f>E14/F$14*100</f>
+      <c r="E29">
+        <f>E18/G$18*100</f>
         <v>74.243810517719396</v>
       </c>
-      <c r="F23">
+      <c r="G29">
         <f>11+12</f>
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>2016</v>
       </c>
-      <c r="B24">
-        <f>B15/$F15*100</f>
+      <c r="B30">
+        <f>B19/$G19*100</f>
         <v>0.43720703356419338</v>
       </c>
-      <c r="C24">
-        <f>C15/$F15*100</f>
+      <c r="C30">
+        <f>C19/$G19*100</f>
         <v>13.260197237842222</v>
       </c>
-      <c r="D24">
-        <f>D15/$F15*100</f>
+      <c r="D30">
+        <f>D19/$G19*100</f>
         <v>34.726251531713835</v>
       </c>
-      <c r="E24">
-        <f>E15/$F15*100</f>
+      <c r="E30">
+        <f>E19/$G19*100</f>
         <v>51.576344196879752</v>
       </c>
-      <c r="F24">
+      <c r="G30">
         <f>30+15</f>
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
         <v>2009</v>
       </c>
-      <c r="B30">
+      <c r="B36">
         <v>26</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <v>13.050041952400782</v>
       </c>
-      <c r="D30">
+      <c r="D36">
         <v>74.310766742208102</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>12.127751196300977</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="9" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
         <v>2010</v>
       </c>
-      <c r="B31">
+      <c r="B37">
         <v>14</v>
       </c>
-      <c r="C31">
+      <c r="C37">
         <v>15.692116842178766</v>
       </c>
-      <c r="D31">
+      <c r="D37">
         <v>56.312015628582422</v>
       </c>
-      <c r="E31">
+      <c r="E37">
         <v>27.18867582845041</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="7">
         <v>1</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J37" s="7">
         <v>-0.72973585949268516</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
         <v>2011</v>
       </c>
-      <c r="B32">
+      <c r="B38">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C38">
         <v>22.453278774835034</v>
       </c>
-      <c r="D32">
+      <c r="D38">
         <v>55.59911242994292</v>
       </c>
-      <c r="E32">
+      <c r="E38">
         <v>20.814614054211646</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="8">
+      <c r="I38" s="8">
         <v>-0.72973585949268516</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J38" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
         <v>2015</v>
       </c>
-      <c r="B33">
+      <c r="B39">
         <v>23</v>
       </c>
-      <c r="C33">
+      <c r="C39">
         <v>5.8437957576329778</v>
       </c>
-      <c r="D33">
+      <c r="D39">
         <v>74.243810517719396</v>
       </c>
-      <c r="E33">
+      <c r="E39">
         <v>18.76544479112157</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
         <v>2016</v>
       </c>
-      <c r="B34">
+      <c r="B40">
         <v>45</v>
       </c>
-      <c r="C34">
+      <c r="C40">
         <v>34.726251531713835</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <v>51.576344196879752</v>
       </c>
-      <c r="E34">
+      <c r="E40">
         <v>13.260197237842222</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="9" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" s="7">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="7">
         <v>1</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="8" t="s">
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="8">
+      <c r="I43" s="8">
         <v>0.52991056371367506</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J43" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B48" s="7">
         <v>0.81938080751805009</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B49" s="7">
         <v>0.67138490772893189</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B50" s="7">
         <v>-0.31446036908427244</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B51" s="7">
         <v>15.606713503851978</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B52" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9" t="s">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F55" s="7"/>
+      <c r="G55" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B56" s="7">
         <v>3</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C56" s="7">
         <v>497.63049360868433</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D56" s="7">
         <v>165.87683120289478</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E56" s="7">
         <v>0.68102462274731201</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7">
         <v>0.687661399149185</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C57" s="7">
         <v>243.56950639131568</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D57" s="7">
         <v>243.56950639131568</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B58" s="8">
         <v>4</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C58" s="8">
         <v>741.2</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9" t="s">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F60" s="7"/>
+      <c r="G60" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B61" s="7">
         <v>-1349.8026782429106</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C61" s="7">
         <v>3352.6753096290422</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D61" s="7">
         <v>-0.40260465257885647</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E61" s="7">
         <v>0.75633394217121719</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7">
         <v>-43949.581576307442</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H61" s="7">
         <v>41249.976219821627</v>
       </c>
-      <c r="H55" s="7">
+      <c r="I61" s="7">
         <v>-43949.581576307442</v>
       </c>
-      <c r="I55" s="7">
+      <c r="J61" s="7">
         <v>41249.976219821627</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B62" s="7">
         <v>13.054471941962534</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C62" s="7">
         <v>34.554013689248258</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D62" s="7">
         <v>0.37779900359374263</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E62" s="7">
         <v>0.77003872234502135</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7">
         <v>-425.99590045020932</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H62" s="7">
         <v>452.10484433413444</v>
       </c>
-      <c r="H56" s="7">
+      <c r="I62" s="7">
         <v>-425.99590045020932</v>
       </c>
-      <c r="I56" s="7">
+      <c r="J62" s="7">
         <v>452.10484433413444</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B63" s="7">
         <v>14.2373424075549</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C63" s="7">
         <v>33.275152783153516</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D63" s="7">
         <v>0.42786707848755412</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E63" s="7">
         <v>0.74261680315508438</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F63" s="8"/>
+      <c r="G63" s="7">
         <v>-408.56356148268731</v>
       </c>
-      <c r="G57" s="7">
+      <c r="H63" s="7">
         <v>437.03824629779706</v>
       </c>
-      <c r="H57" s="7">
+      <c r="I63" s="7">
         <v>-408.56356148268731</v>
       </c>
-      <c r="I57" s="7">
+      <c r="J63" s="7">
         <v>437.03824629779706</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="64" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B64" s="8">
         <v>13.957120515806229</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C64" s="8">
         <v>33.745592210706143</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D64" s="8">
         <v>0.41359832800261798</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E64" s="8">
         <v>0.75033438427186328</v>
       </c>
-      <c r="F58" s="8">
+      <c r="G64" s="8">
         <v>-414.82128305688843</v>
       </c>
-      <c r="G58" s="8">
+      <c r="H64" s="8">
         <v>442.73552408850094</v>
       </c>
-      <c r="H58" s="8">
+      <c r="I64" s="8">
         <v>-414.82128305688843</v>
       </c>
-      <c r="I58" s="8">
+      <c r="J64" s="8">
         <v>442.73552408850094</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>1</v>
-      </c>
-      <c r="B65" s="7">
-        <v>33.732389324191672</v>
-      </c>
-      <c r="C65" s="7">
-        <v>-7.7323893241916721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
-        <v>2</v>
-      </c>
-      <c r="B66" s="7">
-        <v>14.49875669625726</v>
-      </c>
-      <c r="C66" s="7">
-        <v>-0.49875669625726005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>3</v>
-      </c>
-      <c r="B67" s="7">
-        <v>17.599647756758941</v>
-      </c>
-      <c r="C67" s="7">
-        <v>-7.5996477567589409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>4</v>
-      </c>
-      <c r="B68" s="7">
-        <v>14.600226370961991</v>
-      </c>
-      <c r="C68" s="7">
-        <v>8.3997736290380089</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
-        <v>5</v>
-      </c>
-      <c r="B69" s="8">
-        <v>37.568979851831273</v>
-      </c>
-      <c r="C69" s="8">
-        <v>7.4310201481687272</v>
-      </c>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="A19:E23">
-    <sortCondition ref="A19:A23"/>
+  <sortState ref="A22:E28">
+    <sortCondition ref="A22:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3364,12 +5087,579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>2009</v>
+      </c>
+      <c r="D2">
+        <v>42345.647100000002</v>
+      </c>
+      <c r="E2">
+        <v>141128.5355</v>
+      </c>
+      <c r="F2">
+        <v>1659.5550000000001</v>
+      </c>
+      <c r="G2">
+        <v>70917.499899999995</v>
+      </c>
+      <c r="H2">
+        <f>20+11</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>900</v>
+      </c>
+      <c r="C3">
+        <v>2010</v>
+      </c>
+      <c r="D3">
+        <v>53639.737200000003</v>
+      </c>
+      <c r="E3">
+        <v>172489.11730000001</v>
+      </c>
+      <c r="F3">
+        <v>2759.1912000000002</v>
+      </c>
+      <c r="G3">
+        <v>65956.429799999998</v>
+      </c>
+      <c r="H3">
+        <f>10+6+2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>2011</v>
+      </c>
+      <c r="D4">
+        <v>71148.958199999994</v>
+      </c>
+      <c r="E4">
+        <v>196180.01209999999</v>
+      </c>
+      <c r="F4">
+        <v>3590.1837</v>
+      </c>
+      <c r="G4">
+        <v>63587</v>
+      </c>
+      <c r="H4">
+        <f>5+7+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>700</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5">
+        <v>88626.141000000003</v>
+      </c>
+      <c r="E5">
+        <v>204708.3284</v>
+      </c>
+      <c r="F5">
+        <v>3989.9663999999998</v>
+      </c>
+      <c r="G5">
+        <v>62004.601799999997</v>
+      </c>
+      <c r="H5">
+        <f>10+11+0</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6">
+        <v>2014</v>
+      </c>
+      <c r="D6">
+        <v>90907.4908</v>
+      </c>
+      <c r="E6">
+        <v>241754.02979999999</v>
+      </c>
+      <c r="F6">
+        <v>2912.9166</v>
+      </c>
+      <c r="G6">
+        <v>54437.778899999998</v>
+      </c>
+      <c r="H6">
+        <f>15+8+0</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7">
+        <v>96952.609700000001</v>
+      </c>
+      <c r="E7">
+        <v>275378.22240000003</v>
+      </c>
+      <c r="F7">
+        <v>3327.2514000000001</v>
+      </c>
+      <c r="G7">
+        <v>52575.1227</v>
+      </c>
+      <c r="H7">
+        <f>15+11+0</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>2016</v>
+      </c>
+      <c r="D8">
+        <v>112393.79549999999</v>
+      </c>
+      <c r="E8">
+        <v>286930.2279</v>
+      </c>
+      <c r="F8">
+        <v>1415.0492999999999</v>
+      </c>
+      <c r="G8">
+        <v>39352.936500000003</v>
+      </c>
+      <c r="H8">
+        <f>32+17+1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.7791302319389974E-15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2800</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="7">
+        <v>8.8459107305645914E+32</v>
+      </c>
+      <c r="F22" s="7">
+        <v>8.1554415771349271E-82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1.5826521910996549E-29</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.16530438219931E-30</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2800</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7">
+        <v>109.99999999999999</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2.447747742142351E-15</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4.4939271357972656E+16</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1.0355563334218278E-82</v>
+      </c>
+      <c r="F27" s="7">
+        <v>109.99999999999999</v>
+      </c>
+      <c r="G27" s="7">
+        <v>109.99999999999999</v>
+      </c>
+      <c r="H27" s="7">
+        <v>109.99999999999999</v>
+      </c>
+      <c r="I27" s="7">
+        <v>109.99999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3.3622401026480357E-18</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-2.9742075802748856E+16</v>
+      </c>
+      <c r="E28" s="8">
+        <v>8.1554415771349271E-82</v>
+      </c>
+      <c r="F28" s="8">
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>-9.9999999999999964E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="I28" s="8">
+        <v>-9.9999999999999964E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10.000000000000014</v>
+      </c>
+      <c r="C35" s="7">
+        <v>-1.4210854715202004E-14</v>
+      </c>
+      <c r="D35" s="7">
+        <v>-2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
+        <v>20</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="7">
+        <v>30</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7">
+        <v>60</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
+        <v>7</v>
+      </c>
+      <c r="B41" s="8">
+        <v>70</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>